--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/mysql_insert_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/mysql_insert_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="732">
   <si>
     <t>TestID</t>
   </si>
@@ -2461,6 +2461,59 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/complexdatatype/multiset/multiset039.csv</t>
+  </si>
+  <si>
+    <t>insert_016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int型字段自增表插入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoIncrement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoinc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoinc1_value01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $autoinc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert_017</t>
+  </si>
+  <si>
+    <t>bigint型字段自增表插入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoinc2</t>
+  </si>
+  <si>
+    <t>autoinc2_value02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $autoinc2</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_016.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_017.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2837,10 +2890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+      <selection activeCell="L109" sqref="L109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6816,6 +6869,76 @@
       </c>
       <c r="K114" s="3"/>
       <c r="O114" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A115" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A116" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/mysql_insert_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/mysql_insert_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="747">
   <si>
     <t>TestID</t>
   </si>
@@ -2514,6 +2514,60 @@
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_017.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert_018</t>
+  </si>
+  <si>
+    <t>指定非连续字段插入数据1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert_value15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert_019</t>
+  </si>
+  <si>
+    <t>指定非连续字段插入数据2</t>
+  </si>
+  <si>
+    <t>schema17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert_value16</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_018.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_019.csv</t>
   </si>
 </sst>
 </file>
@@ -2890,10 +2944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O116"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="L109" sqref="L109"/>
+    <sheetView tabSelected="1" topLeftCell="D91" workbookViewId="0">
+      <selection activeCell="M116" sqref="M116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6939,6 +6993,76 @@
       <c r="M116" s="7"/>
       <c r="N116" s="7"/>
       <c r="O116" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A117" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A118" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/mysql_insert_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/mysql_insert_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="755">
   <si>
     <t>TestID</t>
   </si>
@@ -2568,6 +2568,36 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_019.csv</t>
+  </si>
+  <si>
+    <t>insert_020</t>
+  </si>
+  <si>
+    <t>自增指定自增起始值表插入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoIncrement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoinc3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoinc3_value03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $autoinc3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_020.csv</t>
   </si>
 </sst>
 </file>
@@ -2944,10 +2974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D91" workbookViewId="0">
-      <selection activeCell="M116" sqref="M116"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="J119" sqref="J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6955,6 +6985,7 @@
       <c r="J115" s="9" t="s">
         <v>730</v>
       </c>
+      <c r="K115" s="3"/>
       <c r="M115" s="7"/>
       <c r="N115" s="7"/>
       <c r="O115" s="7" t="s">
@@ -6990,6 +7021,7 @@
       <c r="J116" s="9" t="s">
         <v>731</v>
       </c>
+      <c r="K116" s="3"/>
       <c r="M116" s="7"/>
       <c r="N116" s="7"/>
       <c r="O116" s="7" t="s">
@@ -7025,6 +7057,7 @@
       <c r="J117" s="9" t="s">
         <v>745</v>
       </c>
+      <c r="K117" s="3"/>
       <c r="M117" s="7"/>
       <c r="N117" s="7"/>
       <c r="O117" s="7" t="s">
@@ -7060,9 +7093,46 @@
       <c r="J118" s="9" t="s">
         <v>746</v>
       </c>
+      <c r="K118" s="3"/>
       <c r="M118" s="7"/>
       <c r="N118" s="7"/>
       <c r="O118" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A119" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="K119" s="3"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="7" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/mysql_insert_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/mysql_insert_cases.xlsx
@@ -2487,10 +2487,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select * from $autoinc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>insert_017</t>
   </si>
   <si>
@@ -2505,9 +2501,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select * from $autoinc2</t>
-  </si>
-  <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_016.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2598,6 +2591,14 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_020.csv</t>
+  </si>
+  <si>
+    <t>select id from $autoinc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id from $autoinc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2977,7 +2978,7 @@
   <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="J119" sqref="J119"/>
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6980,10 +6981,10 @@
         <v>723</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>724</v>
+        <v>753</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="K115" s="3"/>
       <c r="M115" s="7"/>
@@ -6994,32 +6995,32 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A116" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="7" t="s">
         <v>725</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>726</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>720</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="G116" s="7" t="s">
         <v>727</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>728</v>
       </c>
       <c r="H116" s="7" t="s">
         <v>723</v>
       </c>
       <c r="I116" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="J116" s="9" t="s">
         <v>729</v>
-      </c>
-      <c r="J116" s="9" t="s">
-        <v>731</v>
       </c>
       <c r="K116" s="3"/>
       <c r="M116" s="7"/>
@@ -7030,32 +7031,32 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A117" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>732</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>734</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="H117" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="G117" s="7" t="s">
+      <c r="I117" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="H117" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>738</v>
-      </c>
       <c r="J117" s="9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="K117" s="3"/>
       <c r="M117" s="7"/>
@@ -7066,32 +7067,32 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A118" s="7" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="H118" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="G118" s="7" t="s">
+      <c r="I118" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="H118" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="I118" s="3" t="s">
+      <c r="J118" s="9" t="s">
         <v>744</v>
-      </c>
-      <c r="J118" s="9" t="s">
-        <v>746</v>
       </c>
       <c r="K118" s="3"/>
       <c r="M118" s="7"/>
@@ -7102,32 +7103,32 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A119" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>747</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>749</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="H119" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="I119" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="H119" s="7" t="s">
+      <c r="J119" s="9" t="s">
         <v>752</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="J119" s="9" t="s">
-        <v>754</v>
       </c>
       <c r="K119" s="3"/>
       <c r="M119" s="7"/>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/mysql_insert_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/mysql_insert_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="777">
   <si>
     <t>TestID</t>
   </si>
@@ -2599,6 +2599,83 @@
   <si>
     <t>select id from $autoinc2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert_021</t>
+  </si>
+  <si>
+    <t>指定replica为1,插入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert_value17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert_022</t>
+  </si>
+  <si>
+    <t>指定replica为2,插入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema29</t>
+  </si>
+  <si>
+    <t>insert_value18</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema29</t>
+  </si>
+  <si>
+    <t>insert_023</t>
+  </si>
+  <si>
+    <t>指定replica为3,插入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema30</t>
+  </si>
+  <si>
+    <t>insert_value19</t>
+  </si>
+  <si>
+    <t>select * from $schema30</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_021.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_022.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_023.csv</t>
   </si>
 </sst>
 </file>
@@ -2638,12 +2715,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2658,7 +2741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2674,6 +2757,7 @@
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2975,10 +3059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O119"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3542,7 +3626,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -5192,7 +5276,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="11" t="s">
         <v>376</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -5228,7 +5312,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="11" t="s">
         <v>377</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -5264,7 +5348,7 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="11" t="s">
         <v>390</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -5300,7 +5384,7 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="11" t="s">
         <v>396</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -5554,7 +5638,7 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="11" t="s">
         <v>432</v>
       </c>
       <c r="B76" s="7" t="s">
@@ -5590,7 +5674,7 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="11" t="s">
         <v>433</v>
       </c>
       <c r="B77" s="7" t="s">
@@ -5626,7 +5710,7 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="11" t="s">
         <v>434</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -5662,7 +5746,7 @@
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="11" t="s">
         <v>435</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -5698,7 +5782,7 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="11" t="s">
         <v>436</v>
       </c>
       <c r="B80" s="7" t="s">
@@ -5734,7 +5818,7 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="11" t="s">
         <v>437</v>
       </c>
       <c r="B81" s="7" t="s">
@@ -5770,7 +5854,7 @@
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="11" t="s">
         <v>438</v>
       </c>
       <c r="B82" s="7" t="s">
@@ -5806,7 +5890,7 @@
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="11" t="s">
         <v>439</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -5842,7 +5926,7 @@
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="11" t="s">
         <v>440</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -5878,7 +5962,7 @@
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="11" t="s">
         <v>484</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -5914,7 +5998,7 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="11" t="s">
         <v>485</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -5950,7 +6034,7 @@
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="11" t="s">
         <v>495</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -5986,7 +6070,7 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="11" t="s">
         <v>496</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -6022,7 +6106,7 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="11" t="s">
         <v>497</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -6058,7 +6142,7 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="11" t="s">
         <v>498</v>
       </c>
       <c r="B90" s="7" t="s">
@@ -6094,7 +6178,7 @@
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="11" t="s">
         <v>499</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -6130,7 +6214,7 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="11" t="s">
         <v>500</v>
       </c>
       <c r="B92" s="7" t="s">
@@ -6166,7 +6250,7 @@
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="11" t="s">
         <v>501</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -6202,7 +6286,7 @@
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="11" t="s">
         <v>502</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -6238,7 +6322,7 @@
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="11" t="s">
         <v>503</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -6274,7 +6358,7 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="11" t="s">
         <v>504</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -6310,7 +6394,7 @@
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="11" t="s">
         <v>505</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -6346,7 +6430,7 @@
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="11" t="s">
         <v>506</v>
       </c>
       <c r="B98" s="7" t="s">
@@ -6382,7 +6466,7 @@
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="11" t="s">
         <v>507</v>
       </c>
       <c r="B99" s="7" t="s">
@@ -6418,7 +6502,7 @@
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="11" t="s">
         <v>508</v>
       </c>
       <c r="B100" s="7" t="s">
@@ -6454,7 +6538,7 @@
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="11" t="s">
         <v>509</v>
       </c>
       <c r="B101" s="7" t="s">
@@ -6490,7 +6574,7 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="11" t="s">
         <v>510</v>
       </c>
       <c r="B102" s="7" t="s">
@@ -6526,7 +6610,7 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="11" t="s">
         <v>511</v>
       </c>
       <c r="B103" s="7" t="s">
@@ -6562,7 +6646,7 @@
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="11" t="s">
         <v>512</v>
       </c>
       <c r="B104" s="7" t="s">
@@ -6598,7 +6682,7 @@
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="11" t="s">
         <v>513</v>
       </c>
       <c r="B105" s="7" t="s">
@@ -6634,7 +6718,7 @@
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="11" t="s">
         <v>514</v>
       </c>
       <c r="B106" s="7" t="s">
@@ -6670,7 +6754,7 @@
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="11" t="s">
         <v>515</v>
       </c>
       <c r="B107" s="7" t="s">
@@ -6706,7 +6790,7 @@
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="11" t="s">
         <v>516</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -6742,7 +6826,7 @@
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="11" t="s">
         <v>517</v>
       </c>
       <c r="B109" s="7" t="s">
@@ -6778,7 +6862,7 @@
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="11" t="s">
         <v>518</v>
       </c>
       <c r="B110" s="7" t="s">
@@ -6814,7 +6898,7 @@
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="11" t="s">
         <v>519</v>
       </c>
       <c r="B111" s="7" t="s">
@@ -6850,7 +6934,7 @@
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="11" t="s">
         <v>588</v>
       </c>
       <c r="B112" s="7" t="s">
@@ -6886,7 +6970,7 @@
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="11" t="s">
         <v>594</v>
       </c>
       <c r="B113" s="7" t="s">
@@ -6922,7 +7006,7 @@
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="11" t="s">
         <v>598</v>
       </c>
       <c r="B114" s="7" t="s">
@@ -7134,6 +7218,114 @@
       <c r="M119" s="7"/>
       <c r="N119" s="7"/>
       <c r="O119" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A120" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="K120" s="3"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A121" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="K121" s="3"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7"/>
+      <c r="O121" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A122" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="K122" s="3"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="7" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/mysql_insert_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/mysql_insert_cases.xlsx
@@ -3061,8 +3061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5280,7 +5280,7 @@
         <v>376</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>602</v>
+        <v>8</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>378</v>
@@ -5316,7 +5316,7 @@
         <v>377</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>602</v>
+        <v>8</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>384</v>
@@ -5352,7 +5352,7 @@
         <v>390</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>602</v>
+        <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>391</v>
@@ -5388,7 +5388,7 @@
         <v>396</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>602</v>
+        <v>8</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>397</v>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/mysql_insert_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/mysql_insert_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="785">
   <si>
     <t>TestID</t>
   </si>
@@ -2676,6 +2676,35 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_023.csv</t>
+  </si>
+  <si>
+    <t>insert_024</t>
+  </si>
+  <si>
+    <t>字段默认值为当前时间的时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert_value20</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select orderid,productname,char_length(ordertime) c_o from $schema33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_024.csv</t>
   </si>
 </sst>
 </file>
@@ -3059,10 +3088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O122"/>
+  <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7326,6 +7355,42 @@
       <c r="M122" s="7"/>
       <c r="N122" s="7"/>
       <c r="O122" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A123" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="K123" s="3"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="7" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/mysql_insert_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/mysql_insert_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="806">
   <si>
     <t>TestID</t>
   </si>
@@ -2705,6 +2705,81 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_024.csv</t>
+  </si>
+  <si>
+    <t>insert_025</t>
+  </si>
+  <si>
+    <t>insert_026</t>
+  </si>
+  <si>
+    <t>insert_027</t>
+  </si>
+  <si>
+    <t>非主键插入中文字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区主键为中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多分区主键为中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert_value21</t>
+  </si>
+  <si>
+    <t>insert_value22</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_025.csv</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name from $schema6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_026.csv</t>
+  </si>
+  <si>
+    <t>schema44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert_value23</t>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid,name,age,gmt,price from $schema44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_027.csv</t>
   </si>
 </sst>
 </file>
@@ -3088,10 +3163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O123"/>
+  <dimension ref="A1:O126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7391,6 +7466,105 @@
       <c r="M123" s="7"/>
       <c r="N123" s="7"/>
       <c r="O123" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A124" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="K124" s="3"/>
+      <c r="O124" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A125" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="J125" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="K125" s="3"/>
+      <c r="O125" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A126" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="K126" s="3"/>
+      <c r="O126" s="7" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/mysql_insert_cases.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/mysql_insert_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="823">
   <si>
     <t>TestID</t>
   </si>
@@ -2780,6 +2780,73 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_027.csv</t>
+  </si>
+  <si>
+    <t>布尔型字段插入小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert_028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/insert_028.csv</t>
+  </si>
+  <si>
+    <t>insert_value24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔型数组插入元素为小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComplexDataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array10_value58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select in_use from $array10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/mysqlcases/dml/insert/expectedresult/complexdatatype/array/array_005.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2845,7 +2912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2862,6 +2929,7 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3163,10 +3231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O126"/>
+  <dimension ref="A1:O128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5380,7 +5448,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="12" t="s">
         <v>376</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -5416,7 +5484,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="12" t="s">
         <v>377</v>
       </c>
       <c r="B67" s="7" t="s">
@@ -5452,7 +5520,7 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="12" t="s">
         <v>390</v>
       </c>
       <c r="B68" s="7" t="s">
@@ -5488,7 +5556,7 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="12" t="s">
         <v>396</v>
       </c>
       <c r="B69" s="7" t="s">
@@ -7565,6 +7633,76 @@
       </c>
       <c r="K126" s="3"/>
       <c r="O126" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A127" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="J127" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="K127" s="3"/>
+      <c r="O127" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A128" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="K128" s="3"/>
+      <c r="O128" s="1" t="s">
         <v>10</v>
       </c>
     </row>
